--- a/excelTemplate/BOOKINGSTATISTICS.xlsx
+++ b/excelTemplate/BOOKINGSTATISTICS.xlsx
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Containers!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MasterBl!$B$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MasterBl!$B$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>#M B/L No</t>
   </si>
@@ -154,35 +154,43 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;%forRow rs1,i in _data_[2]%&gt;&lt;%=rs1.export_container_bl%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_container_soc_type%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_container_no%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_container_size_type%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_container_cargo_weight%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_masterbl_container_number%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_masterbl_container_type%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPTY RELEASE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%=rs1.export_masterbl_bl%&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%forRow rs1,i in _data_[2]%&gt;&lt;%=rs1.export_container_bl%&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.export_container_soc_type%&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.export_container_no%&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.export_container_size_type%&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.export_container_cargo_weight%&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.export_masterbl_container_number%&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.export_masterbl_container_type%&gt;</t>
+    <t>&lt;%=rs1.export_masterbl_empty_release%&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1118,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1159,7 +1167,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1208,7 +1216,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1257,7 +1265,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1311,7 +1319,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1365,7 +1373,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1419,7 +1427,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1473,7 +1481,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1527,7 +1535,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1581,7 +1589,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1635,7 +1643,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1689,7 +1697,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1743,7 +1751,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2823,24 +2831,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16" style="1"/>
-    <col min="7" max="7" width="18.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="22.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="16" style="1"/>
+    <col min="1" max="7" width="16" style="1"/>
+    <col min="8" max="8" width="18.75" style="24" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
@@ -2848,120 +2856,129 @@
         <v>7</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="28.5">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M1"/>
+  <autoFilter ref="B1:N1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3010,19 +3027,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>6</v>

--- a/excelTemplate/BOOKINGSTATISTICS.xlsx
+++ b/excelTemplate/BOOKINGSTATISTICS.xlsx
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Containers!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MasterBl!$B$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MasterBl!$C$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>#M B/L No</t>
   </si>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.export_masterbl_empty_release%&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLLOVEER CHARGE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.export_masterbl_rollover_charge%&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1112,13 +1120,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1161,13 +1169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1210,13 +1218,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1259,13 +1267,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1313,13 +1321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1367,13 +1375,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1421,13 +1429,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1475,13 +1483,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1529,13 +1537,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1583,13 +1591,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1637,13 +1645,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1691,13 +1699,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1745,13 +1753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2831,154 +2839,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="16" style="1"/>
-    <col min="8" max="8" width="18.75" style="24" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="16" style="1"/>
+    <col min="1" max="1" width="16" style="1"/>
+    <col min="2" max="2" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="8" width="16" style="1"/>
+    <col min="9" max="9" width="18.75" style="24" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="16" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="28.5">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="28.5">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="B3" s="5"/>
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="C4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N1"/>
+  <autoFilter ref="C1:O1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
